--- a/downloads/mainpharmacyturaiinventory.xlsx
+++ b/downloads/mainpharmacyturaiinventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D266F79-5B6C-4499-9501-E823E86EEB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54395899-504B-47AE-B833-0C414CF91903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="stocklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stocklist!$G$1:$G$344</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stocklist!$G$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2242,7 +2242,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2251,7 +2251,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2593,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8681CA4-D105-4AE6-9BEC-EF5B3BEE5B68}">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C336" workbookViewId="0">
-      <selection activeCell="C345" sqref="A345:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2657,7 +2656,7 @@
       <c r="G2">
         <v>250</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2680,10 +2679,10 @@
       <c r="F3" s="4">
         <v>100000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <v>1200</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2709,7 +2708,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2732,10 +2731,10 @@
       <c r="F5" s="4">
         <v>100000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5">
         <v>3000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2758,10 +2757,10 @@
       <c r="F6" s="4">
         <v>100000</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <v>58530</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2787,7 +2786,7 @@
       <c r="G7">
         <v>100</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>6</v>
       </c>
     </row>
@@ -2813,7 +2812,7 @@
       <c r="G8">
         <v>800</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>7</v>
       </c>
     </row>
@@ -2839,7 +2838,7 @@
       <c r="G9">
         <v>800</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>8</v>
       </c>
     </row>
@@ -2865,7 +2864,7 @@
       <c r="G10">
         <v>600</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>9</v>
       </c>
     </row>
@@ -2891,7 +2890,7 @@
       <c r="G11">
         <v>400</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>10</v>
       </c>
     </row>
@@ -2917,7 +2916,7 @@
       <c r="G12">
         <v>200</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>11</v>
       </c>
     </row>
@@ -2940,10 +2939,10 @@
       <c r="F13" s="4">
         <v>100000</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13">
         <v>7500</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>12</v>
       </c>
     </row>
@@ -2969,7 +2968,7 @@
       <c r="G14">
         <v>800</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>13</v>
       </c>
     </row>
@@ -2995,7 +2994,7 @@
       <c r="G15">
         <v>800</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>14</v>
       </c>
     </row>
@@ -3018,10 +3017,10 @@
       <c r="F16" s="4">
         <v>100000</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16">
         <v>1600</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>15</v>
       </c>
     </row>
@@ -3047,7 +3046,7 @@
       <c r="G17">
         <v>650</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>16</v>
       </c>
     </row>
@@ -3073,7 +3072,7 @@
       <c r="G18">
         <v>650</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>17</v>
       </c>
     </row>
@@ -3099,7 +3098,7 @@
       <c r="G19">
         <v>650</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>18</v>
       </c>
     </row>
@@ -3125,7 +3124,7 @@
       <c r="G20">
         <v>250</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>19</v>
       </c>
     </row>
@@ -3151,7 +3150,7 @@
       <c r="G21">
         <v>200</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>20</v>
       </c>
     </row>
@@ -3174,10 +3173,10 @@
       <c r="F22" s="4">
         <v>100000</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22">
         <v>2000</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>21</v>
       </c>
     </row>
@@ -3200,10 +3199,10 @@
       <c r="F23" s="4">
         <v>100000</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23">
         <v>1900</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>22</v>
       </c>
     </row>
@@ -3226,10 +3225,10 @@
       <c r="F24" s="4">
         <v>100000</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24">
         <v>1700</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>23</v>
       </c>
     </row>
@@ -3255,7 +3254,7 @@
       <c r="G25">
         <v>200</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>24</v>
       </c>
     </row>
@@ -3281,7 +3280,7 @@
       <c r="G26">
         <v>10</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>25</v>
       </c>
     </row>
@@ -3307,7 +3306,7 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>26</v>
       </c>
     </row>
@@ -3333,7 +3332,7 @@
       <c r="G28">
         <v>350</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>27</v>
       </c>
     </row>
@@ -3359,7 +3358,7 @@
       <c r="G29">
         <v>350</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>28</v>
       </c>
     </row>
@@ -3385,7 +3384,7 @@
       <c r="G30">
         <v>400</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>29</v>
       </c>
     </row>
@@ -3411,7 +3410,7 @@
       <c r="G31">
         <v>40</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3437,7 +3436,7 @@
       <c r="G32">
         <v>100</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>31</v>
       </c>
     </row>
@@ -3463,7 +3462,7 @@
       <c r="G33">
         <v>350</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>32</v>
       </c>
     </row>
@@ -3489,7 +3488,7 @@
       <c r="G34">
         <v>200</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>33</v>
       </c>
     </row>
@@ -3512,10 +3511,10 @@
       <c r="F35" s="4">
         <v>100000</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35">
         <v>6500</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>34</v>
       </c>
     </row>
@@ -3538,10 +3537,10 @@
       <c r="F36" s="4">
         <v>100000</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36">
         <v>3200</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>35</v>
       </c>
     </row>
@@ -3564,10 +3563,10 @@
       <c r="F37" s="4">
         <v>100000</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37">
         <v>2000</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>36</v>
       </c>
     </row>
@@ -3590,10 +3589,10 @@
       <c r="F38" s="4">
         <v>100000</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38">
         <v>2000</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>37</v>
       </c>
     </row>
@@ -3616,10 +3615,10 @@
       <c r="F39" s="4">
         <v>100000</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39">
         <v>1000</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>38</v>
       </c>
     </row>
@@ -3645,7 +3644,7 @@
       <c r="G40">
         <v>400</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>39</v>
       </c>
     </row>
@@ -3668,10 +3667,10 @@
       <c r="F41" s="4">
         <v>100000</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41">
         <v>2000</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>40</v>
       </c>
     </row>
@@ -3694,10 +3693,10 @@
       <c r="F42" s="4">
         <v>100000</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42">
         <v>1200</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>41</v>
       </c>
     </row>
@@ -3723,7 +3722,7 @@
       <c r="G43">
         <v>100</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>42</v>
       </c>
     </row>
@@ -3749,7 +3748,7 @@
       <c r="G44">
         <v>100</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>43</v>
       </c>
     </row>
@@ -3772,10 +3771,10 @@
       <c r="F45" s="4">
         <v>100000</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45">
         <v>1100</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>44</v>
       </c>
     </row>
@@ -3798,10 +3797,10 @@
       <c r="F46" s="4">
         <v>100000</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46">
         <v>1500</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>45</v>
       </c>
     </row>
@@ -3824,10 +3823,10 @@
       <c r="F47" s="4">
         <v>100000</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47">
         <v>1000</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>46</v>
       </c>
     </row>
@@ -3853,7 +3852,7 @@
       <c r="G48">
         <v>780</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>47</v>
       </c>
     </row>
@@ -3879,7 +3878,7 @@
       <c r="G49">
         <v>600</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="8">
         <v>48</v>
       </c>
     </row>
@@ -3902,10 +3901,10 @@
       <c r="F50" s="4">
         <v>100000</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50">
         <v>1000</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>49</v>
       </c>
     </row>
@@ -3931,7 +3930,7 @@
       <c r="G51">
         <v>800</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>50</v>
       </c>
     </row>
@@ -3954,10 +3953,10 @@
       <c r="F52" s="4">
         <v>100000</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52">
         <v>1000</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="8">
         <v>51</v>
       </c>
     </row>
@@ -3983,7 +3982,7 @@
       <c r="G53">
         <v>450</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>52</v>
       </c>
     </row>
@@ -4009,7 +4008,7 @@
       <c r="G54">
         <v>500</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>53</v>
       </c>
     </row>
@@ -4035,7 +4034,7 @@
       <c r="G55">
         <v>70</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>54</v>
       </c>
     </row>
@@ -4061,7 +4060,7 @@
       <c r="G56">
         <v>350</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>55</v>
       </c>
     </row>
@@ -4087,7 +4086,7 @@
       <c r="G57">
         <v>120</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>56</v>
       </c>
     </row>
@@ -4110,10 +4109,10 @@
       <c r="F58" s="4">
         <v>100000</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58">
         <v>2000</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>57</v>
       </c>
     </row>
@@ -4139,7 +4138,7 @@
       <c r="G59">
         <v>200</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="8">
         <v>58</v>
       </c>
     </row>
@@ -4162,10 +4161,10 @@
       <c r="F60" s="4">
         <v>100000</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60">
         <v>1000</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>59</v>
       </c>
     </row>
@@ -4188,10 +4187,10 @@
       <c r="F61" s="4">
         <v>100000</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61">
         <v>1020</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>60</v>
       </c>
     </row>
@@ -4217,7 +4216,7 @@
       <c r="G62">
         <v>100</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>61</v>
       </c>
     </row>
@@ -4240,10 +4239,10 @@
       <c r="F63" s="4">
         <v>100000</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63">
         <v>6500</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="8">
         <v>62</v>
       </c>
     </row>
@@ -4269,7 +4268,7 @@
       <c r="G64">
         <v>460</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>63</v>
       </c>
     </row>
@@ -4295,7 +4294,7 @@
       <c r="G65">
         <v>250</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="8">
         <v>64</v>
       </c>
     </row>
@@ -4321,7 +4320,7 @@
       <c r="G66">
         <v>300</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>65</v>
       </c>
     </row>
@@ -4347,7 +4346,7 @@
       <c r="G67">
         <v>850</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>66</v>
       </c>
     </row>
@@ -4373,7 +4372,7 @@
       <c r="G68">
         <v>80</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>67</v>
       </c>
     </row>
@@ -4396,10 +4395,10 @@
       <c r="F69" s="4">
         <v>100000</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69">
         <v>25000</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="8">
         <v>68</v>
       </c>
     </row>
@@ -4422,10 +4421,10 @@
       <c r="F70" s="4">
         <v>100000</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70">
         <v>6810</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>69</v>
       </c>
     </row>
@@ -4448,10 +4447,10 @@
       <c r="F71" s="4">
         <v>100000</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71">
         <v>1550</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <v>70</v>
       </c>
     </row>
@@ -4477,7 +4476,7 @@
       <c r="G72">
         <v>750</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <v>71</v>
       </c>
     </row>
@@ -4500,10 +4499,10 @@
       <c r="F73" s="4">
         <v>100000</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73">
         <v>1000</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>72</v>
       </c>
     </row>
@@ -4529,7 +4528,7 @@
       <c r="G74">
         <v>500</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <v>73</v>
       </c>
     </row>
@@ -4555,7 +4554,7 @@
       <c r="G75">
         <v>500</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>74</v>
       </c>
     </row>
@@ -4581,7 +4580,7 @@
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>75</v>
       </c>
     </row>
@@ -4607,7 +4606,7 @@
       <c r="G77">
         <v>670</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>76</v>
       </c>
     </row>
@@ -4633,7 +4632,7 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>77</v>
       </c>
     </row>
@@ -4659,7 +4658,7 @@
       <c r="G79">
         <v>300</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="8">
         <v>78</v>
       </c>
     </row>
@@ -4685,7 +4684,7 @@
       <c r="G80">
         <v>680</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="8">
         <v>79</v>
       </c>
     </row>
@@ -4711,7 +4710,7 @@
       <c r="G81">
         <v>750</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="8">
         <v>80</v>
       </c>
     </row>
@@ -4734,10 +4733,10 @@
       <c r="F82" s="4">
         <v>100000</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82">
         <v>1000</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="8">
         <v>81</v>
       </c>
     </row>
@@ -4763,7 +4762,7 @@
       <c r="G83">
         <v>900</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="8">
         <v>82</v>
       </c>
     </row>
@@ -4789,7 +4788,7 @@
       <c r="G84">
         <v>100</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="8">
         <v>83</v>
       </c>
     </row>
@@ -4815,7 +4814,7 @@
       <c r="G85">
         <v>100</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="8">
         <v>84</v>
       </c>
     </row>
@@ -4841,7 +4840,7 @@
       <c r="G86">
         <v>200</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="8">
         <v>85</v>
       </c>
     </row>
@@ -4867,7 +4866,7 @@
       <c r="G87">
         <v>580</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="8">
         <v>86</v>
       </c>
     </row>
@@ -4893,7 +4892,7 @@
       <c r="G88">
         <v>650</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="8">
         <v>87</v>
       </c>
     </row>
@@ -4919,7 +4918,7 @@
       <c r="G89">
         <v>830</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="8">
         <v>88</v>
       </c>
     </row>
@@ -4945,7 +4944,7 @@
       <c r="G90">
         <v>500</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="8">
         <v>89</v>
       </c>
     </row>
@@ -4971,7 +4970,7 @@
       <c r="G91">
         <v>500</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="8">
         <v>90</v>
       </c>
     </row>
@@ -4997,7 +4996,7 @@
       <c r="G92">
         <v>550</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="8">
         <v>91</v>
       </c>
     </row>
@@ -5023,7 +5022,7 @@
       <c r="G93">
         <v>550</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="8">
         <v>92</v>
       </c>
     </row>
@@ -5049,7 +5048,7 @@
       <c r="G94">
         <v>550</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="8">
         <v>93</v>
       </c>
     </row>
@@ -5075,7 +5074,7 @@
       <c r="G95">
         <v>550</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H95" s="8">
         <v>94</v>
       </c>
     </row>
@@ -5101,7 +5100,7 @@
       <c r="G96">
         <v>550</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="8">
         <v>95</v>
       </c>
     </row>
@@ -5127,7 +5126,7 @@
       <c r="G97">
         <v>550</v>
       </c>
-      <c r="H97" s="9">
+      <c r="H97" s="8">
         <v>96</v>
       </c>
     </row>
@@ -5153,7 +5152,7 @@
       <c r="G98">
         <v>310</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H98" s="8">
         <v>97</v>
       </c>
     </row>
@@ -5179,7 +5178,7 @@
       <c r="G99">
         <v>350</v>
       </c>
-      <c r="H99" s="9">
+      <c r="H99" s="8">
         <v>98</v>
       </c>
     </row>
@@ -5205,7 +5204,7 @@
       <c r="G100">
         <v>100</v>
       </c>
-      <c r="H100" s="9">
+      <c r="H100" s="8">
         <v>99</v>
       </c>
     </row>
@@ -5231,7 +5230,7 @@
       <c r="G101">
         <v>50</v>
       </c>
-      <c r="H101" s="9">
+      <c r="H101" s="8">
         <v>100</v>
       </c>
     </row>
@@ -5257,7 +5256,7 @@
       <c r="G102">
         <v>50</v>
       </c>
-      <c r="H102" s="9">
+      <c r="H102" s="8">
         <v>101</v>
       </c>
     </row>
@@ -5283,7 +5282,7 @@
       <c r="G103">
         <v>200</v>
       </c>
-      <c r="H103" s="9">
+      <c r="H103" s="8">
         <v>102</v>
       </c>
     </row>
@@ -5309,7 +5308,7 @@
       <c r="G104">
         <v>200</v>
       </c>
-      <c r="H104" s="9">
+      <c r="H104" s="8">
         <v>103</v>
       </c>
     </row>
@@ -5335,7 +5334,7 @@
       <c r="G105">
         <v>200</v>
       </c>
-      <c r="H105" s="9">
+      <c r="H105" s="8">
         <v>104</v>
       </c>
     </row>
@@ -5361,7 +5360,7 @@
       <c r="G106">
         <v>200</v>
       </c>
-      <c r="H106" s="9">
+      <c r="H106" s="8">
         <v>105</v>
       </c>
     </row>
@@ -5387,7 +5386,7 @@
       <c r="G107">
         <v>680</v>
       </c>
-      <c r="H107" s="9">
+      <c r="H107" s="8">
         <v>106</v>
       </c>
     </row>
@@ -5413,7 +5412,7 @@
       <c r="G108">
         <v>680</v>
       </c>
-      <c r="H108" s="9">
+      <c r="H108" s="8">
         <v>107</v>
       </c>
     </row>
@@ -5439,7 +5438,7 @@
       <c r="G109">
         <v>400</v>
       </c>
-      <c r="H109" s="9">
+      <c r="H109" s="8">
         <v>108</v>
       </c>
     </row>
@@ -5465,7 +5464,7 @@
       <c r="G110">
         <v>250</v>
       </c>
-      <c r="H110" s="9">
+      <c r="H110" s="8">
         <v>109</v>
       </c>
     </row>
@@ -5488,10 +5487,10 @@
       <c r="F111" s="4">
         <v>100000</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111">
         <v>8400</v>
       </c>
-      <c r="H111" s="9">
+      <c r="H111" s="8">
         <v>110</v>
       </c>
     </row>
@@ -5514,10 +5513,10 @@
       <c r="F112" s="4">
         <v>100000</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112">
         <v>2200</v>
       </c>
-      <c r="H112" s="9">
+      <c r="H112" s="8">
         <v>111</v>
       </c>
     </row>
@@ -5543,7 +5542,7 @@
       <c r="G113">
         <v>750</v>
       </c>
-      <c r="H113" s="9">
+      <c r="H113" s="8">
         <v>112</v>
       </c>
     </row>
@@ -5569,7 +5568,7 @@
       <c r="G114">
         <v>600</v>
       </c>
-      <c r="H114" s="9">
+      <c r="H114" s="8">
         <v>113</v>
       </c>
     </row>
@@ -5595,7 +5594,7 @@
       <c r="G115">
         <v>100</v>
       </c>
-      <c r="H115" s="9">
+      <c r="H115" s="8">
         <v>114</v>
       </c>
     </row>
@@ -5621,7 +5620,7 @@
       <c r="G116">
         <v>250</v>
       </c>
-      <c r="H116" s="9">
+      <c r="H116" s="8">
         <v>115</v>
       </c>
     </row>
@@ -5644,10 +5643,10 @@
       <c r="F117" s="4">
         <v>100000</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117">
         <v>1320</v>
       </c>
-      <c r="H117" s="9">
+      <c r="H117" s="8">
         <v>116</v>
       </c>
     </row>
@@ -5673,7 +5672,7 @@
       <c r="G118">
         <v>400</v>
       </c>
-      <c r="H118" s="9">
+      <c r="H118" s="8">
         <v>117</v>
       </c>
     </row>
@@ -5699,7 +5698,7 @@
       <c r="G119">
         <v>90</v>
       </c>
-      <c r="H119" s="9">
+      <c r="H119" s="8">
         <v>118</v>
       </c>
     </row>
@@ -5725,7 +5724,7 @@
       <c r="G120">
         <v>60</v>
       </c>
-      <c r="H120" s="9">
+      <c r="H120" s="8">
         <v>119</v>
       </c>
     </row>
@@ -5751,7 +5750,7 @@
       <c r="G121">
         <v>800</v>
       </c>
-      <c r="H121" s="9">
+      <c r="H121" s="8">
         <v>120</v>
       </c>
     </row>
@@ -5777,7 +5776,7 @@
       <c r="G122">
         <v>200</v>
       </c>
-      <c r="H122" s="9">
+      <c r="H122" s="8">
         <v>121</v>
       </c>
     </row>
@@ -5803,7 +5802,7 @@
       <c r="G123">
         <v>800</v>
       </c>
-      <c r="H123" s="9">
+      <c r="H123" s="8">
         <v>122</v>
       </c>
     </row>
@@ -5829,7 +5828,7 @@
       <c r="G124">
         <v>200</v>
       </c>
-      <c r="H124" s="9">
+      <c r="H124" s="8">
         <v>123</v>
       </c>
     </row>
@@ -5855,7 +5854,7 @@
       <c r="G125">
         <v>200</v>
       </c>
-      <c r="H125" s="9">
+      <c r="H125" s="8">
         <v>124</v>
       </c>
     </row>
@@ -5878,10 +5877,10 @@
       <c r="F126" s="4">
         <v>100000</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126">
         <v>2000</v>
       </c>
-      <c r="H126" s="9">
+      <c r="H126" s="8">
         <v>125</v>
       </c>
     </row>
@@ -5907,7 +5906,7 @@
       <c r="G127">
         <v>400</v>
       </c>
-      <c r="H127" s="9">
+      <c r="H127" s="8">
         <v>126</v>
       </c>
     </row>
@@ -5933,7 +5932,7 @@
       <c r="G128">
         <v>300</v>
       </c>
-      <c r="H128" s="9">
+      <c r="H128" s="8">
         <v>127</v>
       </c>
     </row>
@@ -5959,7 +5958,7 @@
       <c r="G129">
         <v>450</v>
       </c>
-      <c r="H129" s="9">
+      <c r="H129" s="8">
         <v>128</v>
       </c>
     </row>
@@ -5985,7 +5984,7 @@
       <c r="G130">
         <v>100</v>
       </c>
-      <c r="H130" s="9">
+      <c r="H130" s="8">
         <v>129</v>
       </c>
     </row>
@@ -6011,7 +6010,7 @@
       <c r="G131">
         <v>910</v>
       </c>
-      <c r="H131" s="9">
+      <c r="H131" s="8">
         <v>130</v>
       </c>
     </row>
@@ -6037,7 +6036,7 @@
       <c r="G132">
         <v>910</v>
       </c>
-      <c r="H132" s="9">
+      <c r="H132" s="8">
         <v>131</v>
       </c>
     </row>
@@ -6063,7 +6062,7 @@
       <c r="G133">
         <v>910</v>
       </c>
-      <c r="H133" s="9">
+      <c r="H133" s="8">
         <v>132</v>
       </c>
     </row>
@@ -6089,7 +6088,7 @@
       <c r="G134">
         <v>910</v>
       </c>
-      <c r="H134" s="9">
+      <c r="H134" s="8">
         <v>133</v>
       </c>
     </row>
@@ -6115,7 +6114,7 @@
       <c r="G135">
         <v>210</v>
       </c>
-      <c r="H135" s="9">
+      <c r="H135" s="8">
         <v>134</v>
       </c>
     </row>
@@ -6141,7 +6140,7 @@
       <c r="G136">
         <v>210</v>
       </c>
-      <c r="H136" s="9">
+      <c r="H136" s="8">
         <v>135</v>
       </c>
     </row>
@@ -6167,7 +6166,7 @@
       <c r="G137">
         <v>210</v>
       </c>
-      <c r="H137" s="9">
+      <c r="H137" s="8">
         <v>136</v>
       </c>
     </row>
@@ -6193,7 +6192,7 @@
       <c r="G138">
         <v>210</v>
       </c>
-      <c r="H138" s="9">
+      <c r="H138" s="8">
         <v>137</v>
       </c>
     </row>
@@ -6219,7 +6218,7 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139" s="9">
+      <c r="H139" s="8">
         <v>138</v>
       </c>
     </row>
@@ -6245,7 +6244,7 @@
       <c r="G140">
         <v>150</v>
       </c>
-      <c r="H140" s="9">
+      <c r="H140" s="8">
         <v>139</v>
       </c>
     </row>
@@ -6271,7 +6270,7 @@
       <c r="G141">
         <v>170</v>
       </c>
-      <c r="H141" s="9">
+      <c r="H141" s="8">
         <v>140</v>
       </c>
     </row>
@@ -6297,7 +6296,7 @@
       <c r="G142">
         <v>430</v>
       </c>
-      <c r="H142" s="9">
+      <c r="H142" s="8">
         <v>141</v>
       </c>
     </row>
@@ -6320,10 +6319,10 @@
       <c r="F143" s="4">
         <v>100000</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143">
         <v>1090</v>
       </c>
-      <c r="H143" s="9">
+      <c r="H143" s="8">
         <v>142</v>
       </c>
     </row>
@@ -6346,10 +6345,10 @@
       <c r="F144" s="4">
         <v>100000</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144">
         <v>1200</v>
       </c>
-      <c r="H144" s="9">
+      <c r="H144" s="8">
         <v>143</v>
       </c>
     </row>
@@ -6375,7 +6374,7 @@
       <c r="G145">
         <v>420</v>
       </c>
-      <c r="H145" s="9">
+      <c r="H145" s="8">
         <v>144</v>
       </c>
     </row>
@@ -6398,10 +6397,10 @@
       <c r="F146" s="4">
         <v>100000</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146">
         <v>2500</v>
       </c>
-      <c r="H146" s="9">
+      <c r="H146" s="8">
         <v>145</v>
       </c>
     </row>
@@ -6427,7 +6426,7 @@
       <c r="G147">
         <v>670</v>
       </c>
-      <c r="H147" s="9">
+      <c r="H147" s="8">
         <v>146</v>
       </c>
     </row>
@@ -6453,7 +6452,7 @@
       <c r="G148">
         <v>580</v>
       </c>
-      <c r="H148" s="9">
+      <c r="H148" s="8">
         <v>147</v>
       </c>
     </row>
@@ -6479,7 +6478,7 @@
       <c r="G149">
         <v>600</v>
       </c>
-      <c r="H149" s="9">
+      <c r="H149" s="8">
         <v>148</v>
       </c>
     </row>
@@ -6502,10 +6501,10 @@
       <c r="F150" s="4">
         <v>100000</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150">
         <v>1300</v>
       </c>
-      <c r="H150" s="9">
+      <c r="H150" s="8">
         <v>149</v>
       </c>
     </row>
@@ -6531,7 +6530,7 @@
       <c r="G151">
         <v>380</v>
       </c>
-      <c r="H151" s="9">
+      <c r="H151" s="8">
         <v>150</v>
       </c>
     </row>
@@ -6554,10 +6553,10 @@
       <c r="F152" s="4">
         <v>100000</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G152">
         <v>1330</v>
       </c>
-      <c r="H152" s="9">
+      <c r="H152" s="8">
         <v>151</v>
       </c>
     </row>
@@ -6583,7 +6582,7 @@
       <c r="G153">
         <v>600</v>
       </c>
-      <c r="H153" s="9">
+      <c r="H153" s="8">
         <v>152</v>
       </c>
     </row>
@@ -6609,7 +6608,7 @@
       <c r="G154">
         <v>660</v>
       </c>
-      <c r="H154" s="9">
+      <c r="H154" s="8">
         <v>153</v>
       </c>
     </row>
@@ -6632,10 +6631,10 @@
       <c r="F155" s="4">
         <v>100000</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155">
         <v>1050</v>
       </c>
-      <c r="H155" s="9">
+      <c r="H155" s="8">
         <v>154</v>
       </c>
     </row>
@@ -6661,7 +6660,7 @@
       <c r="G156">
         <v>820</v>
       </c>
-      <c r="H156" s="9">
+      <c r="H156" s="8">
         <v>155</v>
       </c>
     </row>
@@ -6687,7 +6686,7 @@
       <c r="G157">
         <v>320</v>
       </c>
-      <c r="H157" s="9">
+      <c r="H157" s="8">
         <v>156</v>
       </c>
     </row>
@@ -6713,7 +6712,7 @@
       <c r="G158">
         <v>350</v>
       </c>
-      <c r="H158" s="9">
+      <c r="H158" s="8">
         <v>157</v>
       </c>
     </row>
@@ -6739,7 +6738,7 @@
       <c r="G159">
         <v>960</v>
       </c>
-      <c r="H159" s="9">
+      <c r="H159" s="8">
         <v>158</v>
       </c>
     </row>
@@ -6765,7 +6764,7 @@
       <c r="G160">
         <v>950</v>
       </c>
-      <c r="H160" s="9">
+      <c r="H160" s="8">
         <v>159</v>
       </c>
     </row>
@@ -6791,7 +6790,7 @@
       <c r="G161">
         <v>360</v>
       </c>
-      <c r="H161" s="9">
+      <c r="H161" s="8">
         <v>160</v>
       </c>
     </row>
@@ -6817,7 +6816,7 @@
       <c r="G162">
         <v>350</v>
       </c>
-      <c r="H162" s="9">
+      <c r="H162" s="8">
         <v>161</v>
       </c>
     </row>
@@ -6843,7 +6842,7 @@
       <c r="G163">
         <v>960</v>
       </c>
-      <c r="H163" s="9">
+      <c r="H163" s="8">
         <v>162</v>
       </c>
     </row>
@@ -6869,7 +6868,7 @@
       <c r="G164">
         <v>850</v>
       </c>
-      <c r="H164" s="9">
+      <c r="H164" s="8">
         <v>163</v>
       </c>
     </row>
@@ -6895,7 +6894,7 @@
       <c r="G165">
         <v>60</v>
       </c>
-      <c r="H165" s="9">
+      <c r="H165" s="8">
         <v>164</v>
       </c>
     </row>
@@ -6921,7 +6920,7 @@
       <c r="G166">
         <v>180</v>
       </c>
-      <c r="H166" s="9">
+      <c r="H166" s="8">
         <v>165</v>
       </c>
     </row>
@@ -6944,10 +6943,10 @@
       <c r="F167" s="4">
         <v>100000</v>
       </c>
-      <c r="G167" s="8">
+      <c r="G167">
         <v>1400</v>
       </c>
-      <c r="H167" s="9">
+      <c r="H167" s="8">
         <v>166</v>
       </c>
     </row>
@@ -6973,7 +6972,7 @@
       <c r="G168">
         <v>170</v>
       </c>
-      <c r="H168" s="9">
+      <c r="H168" s="8">
         <v>167</v>
       </c>
     </row>
@@ -6999,7 +6998,7 @@
       <c r="G169">
         <v>110</v>
       </c>
-      <c r="H169" s="9">
+      <c r="H169" s="8">
         <v>168</v>
       </c>
     </row>
@@ -7025,7 +7024,7 @@
       <c r="G170">
         <v>730</v>
       </c>
-      <c r="H170" s="9">
+      <c r="H170" s="8">
         <v>169</v>
       </c>
     </row>
@@ -7051,7 +7050,7 @@
       <c r="G171">
         <v>660</v>
       </c>
-      <c r="H171" s="9">
+      <c r="H171" s="8">
         <v>170</v>
       </c>
     </row>
@@ -7077,7 +7076,7 @@
       <c r="G172">
         <v>710</v>
       </c>
-      <c r="H172" s="9">
+      <c r="H172" s="8">
         <v>171</v>
       </c>
     </row>
@@ -7103,7 +7102,7 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173" s="9">
+      <c r="H173" s="8">
         <v>172</v>
       </c>
     </row>
@@ -7126,10 +7125,10 @@
       <c r="F174" s="4">
         <v>100000</v>
       </c>
-      <c r="G174" s="8">
+      <c r="G174">
         <v>1100</v>
       </c>
-      <c r="H174" s="9">
+      <c r="H174" s="8">
         <v>173</v>
       </c>
     </row>
@@ -7152,10 +7151,10 @@
       <c r="F175" s="4">
         <v>100000</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175">
         <v>2500</v>
       </c>
-      <c r="H175" s="9">
+      <c r="H175" s="8">
         <v>174</v>
       </c>
     </row>
@@ -7181,7 +7180,7 @@
       <c r="G176">
         <v>130</v>
       </c>
-      <c r="H176" s="9">
+      <c r="H176" s="8">
         <v>175</v>
       </c>
     </row>
@@ -7207,7 +7206,7 @@
       <c r="G177">
         <v>80</v>
       </c>
-      <c r="H177" s="9">
+      <c r="H177" s="8">
         <v>176</v>
       </c>
     </row>
@@ -7233,7 +7232,7 @@
       <c r="G178">
         <v>50</v>
       </c>
-      <c r="H178" s="9">
+      <c r="H178" s="8">
         <v>177</v>
       </c>
     </row>
@@ -7256,10 +7255,10 @@
       <c r="F179" s="4">
         <v>100000</v>
       </c>
-      <c r="G179" s="8">
+      <c r="G179">
         <v>5500</v>
       </c>
-      <c r="H179" s="9">
+      <c r="H179" s="8">
         <v>178</v>
       </c>
     </row>
@@ -7285,7 +7284,7 @@
       <c r="G180">
         <v>550</v>
       </c>
-      <c r="H180" s="9">
+      <c r="H180" s="8">
         <v>179</v>
       </c>
     </row>
@@ -7311,7 +7310,7 @@
       <c r="G181">
         <v>500</v>
       </c>
-      <c r="H181" s="9">
+      <c r="H181" s="8">
         <v>180</v>
       </c>
     </row>
@@ -7337,7 +7336,7 @@
       <c r="G182">
         <v>80</v>
       </c>
-      <c r="H182" s="9">
+      <c r="H182" s="8">
         <v>181</v>
       </c>
     </row>
@@ -7360,10 +7359,10 @@
       <c r="F183" s="4">
         <v>100000</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183">
         <v>2000</v>
       </c>
-      <c r="H183" s="9">
+      <c r="H183" s="8">
         <v>182</v>
       </c>
     </row>
@@ -7389,7 +7388,7 @@
       <c r="G184">
         <v>110</v>
       </c>
-      <c r="H184" s="9">
+      <c r="H184" s="8">
         <v>183</v>
       </c>
     </row>
@@ -7415,7 +7414,7 @@
       <c r="G185">
         <v>60</v>
       </c>
-      <c r="H185" s="9">
+      <c r="H185" s="8">
         <v>184</v>
       </c>
     </row>
@@ -7441,7 +7440,7 @@
       <c r="G186">
         <v>500</v>
       </c>
-      <c r="H186" s="9">
+      <c r="H186" s="8">
         <v>185</v>
       </c>
     </row>
@@ -7467,7 +7466,7 @@
       <c r="G187">
         <v>210</v>
       </c>
-      <c r="H187" s="9">
+      <c r="H187" s="8">
         <v>186</v>
       </c>
     </row>
@@ -7493,7 +7492,7 @@
       <c r="G188">
         <v>650</v>
       </c>
-      <c r="H188" s="9">
+      <c r="H188" s="8">
         <v>187</v>
       </c>
     </row>
@@ -7519,7 +7518,7 @@
       <c r="G189">
         <v>50</v>
       </c>
-      <c r="H189" s="9">
+      <c r="H189" s="8">
         <v>188</v>
       </c>
     </row>
@@ -7545,7 +7544,7 @@
       <c r="G190">
         <v>200</v>
       </c>
-      <c r="H190" s="9">
+      <c r="H190" s="8">
         <v>189</v>
       </c>
     </row>
@@ -7571,7 +7570,7 @@
       <c r="G191">
         <v>890</v>
       </c>
-      <c r="H191" s="9">
+      <c r="H191" s="8">
         <v>190</v>
       </c>
     </row>
@@ -7597,7 +7596,7 @@
       <c r="G192">
         <v>60</v>
       </c>
-      <c r="H192" s="9">
+      <c r="H192" s="8">
         <v>191</v>
       </c>
     </row>
@@ -7623,7 +7622,7 @@
       <c r="G193">
         <v>90</v>
       </c>
-      <c r="H193" s="9">
+      <c r="H193" s="8">
         <v>192</v>
       </c>
     </row>
@@ -7649,7 +7648,7 @@
       <c r="G194">
         <v>40</v>
       </c>
-      <c r="H194" s="9">
+      <c r="H194" s="8">
         <v>193</v>
       </c>
     </row>
@@ -7675,7 +7674,7 @@
       <c r="G195">
         <v>50</v>
       </c>
-      <c r="H195" s="9">
+      <c r="H195" s="8">
         <v>194</v>
       </c>
     </row>
@@ -7701,7 +7700,7 @@
       <c r="G196">
         <v>90</v>
       </c>
-      <c r="H196" s="9">
+      <c r="H196" s="8">
         <v>195</v>
       </c>
     </row>
@@ -7727,7 +7726,7 @@
       <c r="G197">
         <v>80</v>
       </c>
-      <c r="H197" s="9">
+      <c r="H197" s="8">
         <v>196</v>
       </c>
     </row>
@@ -7753,7 +7752,7 @@
       <c r="G198">
         <v>500</v>
       </c>
-      <c r="H198" s="9">
+      <c r="H198" s="8">
         <v>197</v>
       </c>
     </row>
@@ -7776,10 +7775,10 @@
       <c r="F199" s="4">
         <v>100000</v>
       </c>
-      <c r="G199" s="8">
+      <c r="G199">
         <v>1020</v>
       </c>
-      <c r="H199" s="9">
+      <c r="H199" s="8">
         <v>198</v>
       </c>
     </row>
@@ -7805,7 +7804,7 @@
       <c r="G200">
         <v>350</v>
       </c>
-      <c r="H200" s="9">
+      <c r="H200" s="8">
         <v>199</v>
       </c>
     </row>
@@ -7831,7 +7830,7 @@
       <c r="G201">
         <v>880</v>
       </c>
-      <c r="H201" s="9">
+      <c r="H201" s="8">
         <v>200</v>
       </c>
     </row>
@@ -7857,7 +7856,7 @@
       <c r="G202">
         <v>600</v>
       </c>
-      <c r="H202" s="9">
+      <c r="H202" s="8">
         <v>201</v>
       </c>
     </row>
@@ -7883,7 +7882,7 @@
       <c r="G203">
         <v>800</v>
       </c>
-      <c r="H203" s="9">
+      <c r="H203" s="8">
         <v>202</v>
       </c>
     </row>
@@ -7909,7 +7908,7 @@
       <c r="G204">
         <v>400</v>
       </c>
-      <c r="H204" s="9">
+      <c r="H204" s="8">
         <v>203</v>
       </c>
     </row>
@@ -7935,7 +7934,7 @@
       <c r="G205">
         <v>400</v>
       </c>
-      <c r="H205" s="9">
+      <c r="H205" s="8">
         <v>204</v>
       </c>
     </row>
@@ -7961,7 +7960,7 @@
       <c r="G206">
         <v>400</v>
       </c>
-      <c r="H206" s="9">
+      <c r="H206" s="8">
         <v>205</v>
       </c>
     </row>
@@ -7984,10 +7983,10 @@
       <c r="F207" s="4">
         <v>100000</v>
       </c>
-      <c r="G207" s="8">
+      <c r="G207">
         <v>1000</v>
       </c>
-      <c r="H207" s="9">
+      <c r="H207" s="8">
         <v>206</v>
       </c>
     </row>
@@ -8013,7 +8012,7 @@
       <c r="G208">
         <v>360</v>
       </c>
-      <c r="H208" s="9">
+      <c r="H208" s="8">
         <v>207</v>
       </c>
     </row>
@@ -8039,7 +8038,7 @@
       <c r="G209">
         <v>750</v>
       </c>
-      <c r="H209" s="9">
+      <c r="H209" s="8">
         <v>208</v>
       </c>
     </row>
@@ -8065,7 +8064,7 @@
       <c r="G210">
         <v>740</v>
       </c>
-      <c r="H210" s="9">
+      <c r="H210" s="8">
         <v>209</v>
       </c>
     </row>
@@ -8091,7 +8090,7 @@
       <c r="G211">
         <v>260</v>
       </c>
-      <c r="H211" s="9">
+      <c r="H211" s="8">
         <v>210</v>
       </c>
     </row>
@@ -8117,7 +8116,7 @@
       <c r="G212">
         <v>460</v>
       </c>
-      <c r="H212" s="9">
+      <c r="H212" s="8">
         <v>211</v>
       </c>
     </row>
@@ -8143,7 +8142,7 @@
       <c r="G213">
         <v>630</v>
       </c>
-      <c r="H213" s="9">
+      <c r="H213" s="8">
         <v>212</v>
       </c>
     </row>
@@ -8169,7 +8168,7 @@
       <c r="G214">
         <v>500</v>
       </c>
-      <c r="H214" s="9">
+      <c r="H214" s="8">
         <v>213</v>
       </c>
     </row>
@@ -8195,7 +8194,7 @@
       <c r="G215">
         <v>850</v>
       </c>
-      <c r="H215" s="9">
+      <c r="H215" s="8">
         <v>214</v>
       </c>
     </row>
@@ -8221,7 +8220,7 @@
       <c r="G216">
         <v>300</v>
       </c>
-      <c r="H216" s="9">
+      <c r="H216" s="8">
         <v>215</v>
       </c>
     </row>
@@ -8247,7 +8246,7 @@
       <c r="G217">
         <v>340</v>
       </c>
-      <c r="H217" s="9">
+      <c r="H217" s="8">
         <v>216</v>
       </c>
     </row>
@@ -8273,7 +8272,7 @@
       <c r="G218">
         <v>710</v>
       </c>
-      <c r="H218" s="9">
+      <c r="H218" s="8">
         <v>217</v>
       </c>
     </row>
@@ -8299,7 +8298,7 @@
       <c r="G219">
         <v>280</v>
       </c>
-      <c r="H219" s="9">
+      <c r="H219" s="8">
         <v>218</v>
       </c>
     </row>
@@ -8325,7 +8324,7 @@
       <c r="G220">
         <v>850</v>
       </c>
-      <c r="H220" s="9">
+      <c r="H220" s="8">
         <v>219</v>
       </c>
     </row>
@@ -8351,7 +8350,7 @@
       <c r="G221">
         <v>280</v>
       </c>
-      <c r="H221" s="9">
+      <c r="H221" s="8">
         <v>220</v>
       </c>
     </row>
@@ -8377,7 +8376,7 @@
       <c r="G222">
         <v>550</v>
       </c>
-      <c r="H222" s="9">
+      <c r="H222" s="8">
         <v>221</v>
       </c>
     </row>
@@ -8400,10 +8399,10 @@
       <c r="F223" s="4">
         <v>100000</v>
       </c>
-      <c r="G223" s="8">
+      <c r="G223">
         <v>2100</v>
       </c>
-      <c r="H223" s="9">
+      <c r="H223" s="8">
         <v>222</v>
       </c>
     </row>
@@ -8426,10 +8425,10 @@
       <c r="F224" s="4">
         <v>100000</v>
       </c>
-      <c r="G224" s="8">
+      <c r="G224">
         <v>2500</v>
       </c>
-      <c r="H224" s="9">
+      <c r="H224" s="8">
         <v>223</v>
       </c>
     </row>
@@ -8452,10 +8451,10 @@
       <c r="F225" s="4">
         <v>100000</v>
       </c>
-      <c r="G225" s="8">
+      <c r="G225">
         <v>1540</v>
       </c>
-      <c r="H225" s="9">
+      <c r="H225" s="8">
         <v>224</v>
       </c>
     </row>
@@ -8478,10 +8477,10 @@
       <c r="F226" s="4">
         <v>100000</v>
       </c>
-      <c r="G226" s="8">
+      <c r="G226">
         <v>1020</v>
       </c>
-      <c r="H226" s="9">
+      <c r="H226" s="8">
         <v>225</v>
       </c>
     </row>
@@ -8507,7 +8506,7 @@
       <c r="G227">
         <v>550</v>
       </c>
-      <c r="H227" s="9">
+      <c r="H227" s="8">
         <v>226</v>
       </c>
     </row>
@@ -8530,10 +8529,10 @@
       <c r="F228" s="4">
         <v>100000</v>
       </c>
-      <c r="G228" s="8">
+      <c r="G228">
         <v>1050</v>
       </c>
-      <c r="H228" s="9">
+      <c r="H228" s="8">
         <v>227</v>
       </c>
     </row>
@@ -8559,7 +8558,7 @@
       <c r="G229">
         <v>600</v>
       </c>
-      <c r="H229" s="9">
+      <c r="H229" s="8">
         <v>228</v>
       </c>
     </row>
@@ -8582,10 +8581,10 @@
       <c r="F230" s="4">
         <v>100000</v>
       </c>
-      <c r="G230" s="8">
+      <c r="G230">
         <v>2000</v>
       </c>
-      <c r="H230" s="9">
+      <c r="H230" s="8">
         <v>229</v>
       </c>
     </row>
@@ -8611,7 +8610,7 @@
       <c r="G231">
         <v>120</v>
       </c>
-      <c r="H231" s="9">
+      <c r="H231" s="8">
         <v>230</v>
       </c>
     </row>
@@ -8637,7 +8636,7 @@
       <c r="G232">
         <v>600</v>
       </c>
-      <c r="H232" s="9">
+      <c r="H232" s="8">
         <v>231</v>
       </c>
     </row>
@@ -8663,7 +8662,7 @@
       <c r="G233">
         <v>500</v>
       </c>
-      <c r="H233" s="9">
+      <c r="H233" s="8">
         <v>232</v>
       </c>
     </row>
@@ -8689,7 +8688,7 @@
       <c r="G234">
         <v>130</v>
       </c>
-      <c r="H234" s="9">
+      <c r="H234" s="8">
         <v>233</v>
       </c>
     </row>
@@ -8715,7 +8714,7 @@
       <c r="G235">
         <v>150</v>
       </c>
-      <c r="H235" s="9">
+      <c r="H235" s="8">
         <v>234</v>
       </c>
     </row>
@@ -8741,7 +8740,7 @@
       <c r="G236">
         <v>100</v>
       </c>
-      <c r="H236" s="9">
+      <c r="H236" s="8">
         <v>235</v>
       </c>
     </row>
@@ -8767,7 +8766,7 @@
       <c r="G237">
         <v>770</v>
       </c>
-      <c r="H237" s="9">
+      <c r="H237" s="8">
         <v>236</v>
       </c>
     </row>
@@ -8793,7 +8792,7 @@
       <c r="G238">
         <v>310</v>
       </c>
-      <c r="H238" s="9">
+      <c r="H238" s="8">
         <v>237</v>
       </c>
     </row>
@@ -8819,7 +8818,7 @@
       <c r="G239">
         <v>220</v>
       </c>
-      <c r="H239" s="9">
+      <c r="H239" s="8">
         <v>238</v>
       </c>
     </row>
@@ -8845,7 +8844,7 @@
       <c r="G240">
         <v>600</v>
       </c>
-      <c r="H240" s="9">
+      <c r="H240" s="8">
         <v>239</v>
       </c>
     </row>
@@ -8871,7 +8870,7 @@
       <c r="G241">
         <v>500</v>
       </c>
-      <c r="H241" s="9">
+      <c r="H241" s="8">
         <v>240</v>
       </c>
     </row>
@@ -8894,10 +8893,10 @@
       <c r="F242" s="4">
         <v>100000</v>
       </c>
-      <c r="G242" s="8">
+      <c r="G242">
         <v>1100</v>
       </c>
-      <c r="H242" s="9">
+      <c r="H242" s="8">
         <v>241</v>
       </c>
     </row>
@@ -8923,7 +8922,7 @@
       <c r="G243">
         <v>430</v>
       </c>
-      <c r="H243" s="9">
+      <c r="H243" s="8">
         <v>242</v>
       </c>
     </row>
@@ -8949,7 +8948,7 @@
       <c r="G244">
         <v>800</v>
       </c>
-      <c r="H244" s="9">
+      <c r="H244" s="8">
         <v>243</v>
       </c>
     </row>
@@ -8975,7 +8974,7 @@
       <c r="G245">
         <v>370</v>
       </c>
-      <c r="H245" s="9">
+      <c r="H245" s="8">
         <v>244</v>
       </c>
     </row>
@@ -9001,7 +9000,7 @@
       <c r="G246">
         <v>150</v>
       </c>
-      <c r="H246" s="9">
+      <c r="H246" s="8">
         <v>245</v>
       </c>
     </row>
@@ -9027,7 +9026,7 @@
       <c r="G247">
         <v>20</v>
       </c>
-      <c r="H247" s="9">
+      <c r="H247" s="8">
         <v>246</v>
       </c>
     </row>
@@ -9053,7 +9052,7 @@
       <c r="G248">
         <v>940</v>
       </c>
-      <c r="H248" s="9">
+      <c r="H248" s="8">
         <v>247</v>
       </c>
     </row>
@@ -9079,7 +9078,7 @@
       <c r="G249">
         <v>550</v>
       </c>
-      <c r="H249" s="9">
+      <c r="H249" s="8">
         <v>248</v>
       </c>
     </row>
@@ -9102,10 +9101,10 @@
       <c r="F250" s="4">
         <v>100000</v>
       </c>
-      <c r="G250" s="8">
+      <c r="G250">
         <v>6600</v>
       </c>
-      <c r="H250" s="9">
+      <c r="H250" s="8">
         <v>249</v>
       </c>
     </row>
@@ -9131,7 +9130,7 @@
       <c r="G251">
         <v>90</v>
       </c>
-      <c r="H251" s="9">
+      <c r="H251" s="8">
         <v>250</v>
       </c>
     </row>
@@ -9157,7 +9156,7 @@
       <c r="G252">
         <v>400</v>
       </c>
-      <c r="H252" s="9">
+      <c r="H252" s="8">
         <v>251</v>
       </c>
     </row>
@@ -9183,7 +9182,7 @@
       <c r="G253">
         <v>150</v>
       </c>
-      <c r="H253" s="9">
+      <c r="H253" s="8">
         <v>252</v>
       </c>
     </row>
@@ -9209,7 +9208,7 @@
       <c r="G254">
         <v>90</v>
       </c>
-      <c r="H254" s="9">
+      <c r="H254" s="8">
         <v>253</v>
       </c>
     </row>
@@ -9235,7 +9234,7 @@
       <c r="G255">
         <v>620</v>
       </c>
-      <c r="H255" s="9">
+      <c r="H255" s="8">
         <v>254</v>
       </c>
     </row>
@@ -9261,7 +9260,7 @@
       <c r="G256">
         <v>820</v>
       </c>
-      <c r="H256" s="9">
+      <c r="H256" s="8">
         <v>255</v>
       </c>
     </row>
@@ -9287,7 +9286,7 @@
       <c r="G257">
         <v>470</v>
       </c>
-      <c r="H257" s="9">
+      <c r="H257" s="8">
         <v>256</v>
       </c>
     </row>
@@ -9313,7 +9312,7 @@
       <c r="G258">
         <v>660</v>
       </c>
-      <c r="H258" s="9">
+      <c r="H258" s="8">
         <v>257</v>
       </c>
     </row>
@@ -9339,7 +9338,7 @@
       <c r="G259">
         <v>100</v>
       </c>
-      <c r="H259" s="9">
+      <c r="H259" s="8">
         <v>258</v>
       </c>
     </row>
@@ -9365,7 +9364,7 @@
       <c r="G260">
         <v>800</v>
       </c>
-      <c r="H260" s="9">
+      <c r="H260" s="8">
         <v>259</v>
       </c>
     </row>
@@ -9391,7 +9390,7 @@
       <c r="G261">
         <v>300</v>
       </c>
-      <c r="H261" s="9">
+      <c r="H261" s="8">
         <v>260</v>
       </c>
     </row>
@@ -9417,7 +9416,7 @@
       <c r="G262">
         <v>600</v>
       </c>
-      <c r="H262" s="9">
+      <c r="H262" s="8">
         <v>261</v>
       </c>
     </row>
@@ -9443,7 +9442,7 @@
       <c r="G263">
         <v>900</v>
       </c>
-      <c r="H263" s="9">
+      <c r="H263" s="8">
         <v>262</v>
       </c>
     </row>
@@ -9466,10 +9465,10 @@
       <c r="F264" s="4">
         <v>100000</v>
       </c>
-      <c r="G264" s="8">
+      <c r="G264">
         <v>1080</v>
       </c>
-      <c r="H264" s="9">
+      <c r="H264" s="8">
         <v>263</v>
       </c>
     </row>
@@ -9492,10 +9491,10 @@
       <c r="F265" s="4">
         <v>100000</v>
       </c>
-      <c r="G265" s="8">
+      <c r="G265">
         <v>1320</v>
       </c>
-      <c r="H265" s="9">
+      <c r="H265" s="8">
         <v>264</v>
       </c>
     </row>
@@ -9521,7 +9520,7 @@
       <c r="G266">
         <v>970</v>
       </c>
-      <c r="H266" s="9">
+      <c r="H266" s="8">
         <v>265</v>
       </c>
     </row>
@@ -9544,10 +9543,10 @@
       <c r="F267" s="4">
         <v>100000</v>
       </c>
-      <c r="G267" s="8">
+      <c r="G267">
         <v>1100</v>
       </c>
-      <c r="H267" s="9">
+      <c r="H267" s="8">
         <v>266</v>
       </c>
     </row>
@@ -9573,7 +9572,7 @@
       <c r="G268">
         <v>770</v>
       </c>
-      <c r="H268" s="9">
+      <c r="H268" s="8">
         <v>267</v>
       </c>
     </row>
@@ -9599,7 +9598,7 @@
       <c r="G269">
         <v>200</v>
       </c>
-      <c r="H269" s="9">
+      <c r="H269" s="8">
         <v>268</v>
       </c>
     </row>
@@ -9622,10 +9621,10 @@
       <c r="F270" s="4">
         <v>100000</v>
       </c>
-      <c r="G270" s="8">
+      <c r="G270">
         <v>2800</v>
       </c>
-      <c r="H270" s="9">
+      <c r="H270" s="8">
         <v>269</v>
       </c>
     </row>
@@ -9648,10 +9647,10 @@
       <c r="F271" s="4">
         <v>100000</v>
       </c>
-      <c r="G271" s="8">
+      <c r="G271">
         <v>3000</v>
       </c>
-      <c r="H271" s="9">
+      <c r="H271" s="8">
         <v>270</v>
       </c>
     </row>
@@ -9674,10 +9673,10 @@
       <c r="F272" s="4">
         <v>100000</v>
       </c>
-      <c r="G272" s="8">
+      <c r="G272">
         <v>2500</v>
       </c>
-      <c r="H272" s="9">
+      <c r="H272" s="8">
         <v>271</v>
       </c>
     </row>
@@ -9700,10 +9699,10 @@
       <c r="F273" s="4">
         <v>100000</v>
       </c>
-      <c r="G273" s="8">
+      <c r="G273">
         <v>2400</v>
       </c>
-      <c r="H273" s="9">
+      <c r="H273" s="8">
         <v>272</v>
       </c>
     </row>
@@ -9726,10 +9725,10 @@
       <c r="F274" s="4">
         <v>100000</v>
       </c>
-      <c r="G274" s="8">
+      <c r="G274">
         <v>3200</v>
       </c>
-      <c r="H274" s="9">
+      <c r="H274" s="8">
         <v>273</v>
       </c>
     </row>
@@ -9752,10 +9751,10 @@
       <c r="F275" s="4">
         <v>100000</v>
       </c>
-      <c r="G275" s="8">
+      <c r="G275">
         <v>3200</v>
       </c>
-      <c r="H275" s="9">
+      <c r="H275" s="8">
         <v>274</v>
       </c>
     </row>
@@ -9781,7 +9780,7 @@
       <c r="G276">
         <v>290</v>
       </c>
-      <c r="H276" s="9">
+      <c r="H276" s="8">
         <v>275</v>
       </c>
     </row>
@@ -9807,7 +9806,7 @@
       <c r="G277">
         <v>270</v>
       </c>
-      <c r="H277" s="9">
+      <c r="H277" s="8">
         <v>276</v>
       </c>
     </row>
@@ -9833,7 +9832,7 @@
       <c r="G278">
         <v>550</v>
       </c>
-      <c r="H278" s="9">
+      <c r="H278" s="8">
         <v>277</v>
       </c>
     </row>
@@ -9859,7 +9858,7 @@
       <c r="G279">
         <v>500</v>
       </c>
-      <c r="H279" s="9">
+      <c r="H279" s="8">
         <v>278</v>
       </c>
     </row>
@@ -9885,7 +9884,7 @@
       <c r="G280">
         <v>350</v>
       </c>
-      <c r="H280" s="9">
+      <c r="H280" s="8">
         <v>279</v>
       </c>
     </row>
@@ -9911,7 +9910,7 @@
       <c r="G281">
         <v>870</v>
       </c>
-      <c r="H281" s="9">
+      <c r="H281" s="8">
         <v>280</v>
       </c>
     </row>
@@ -9937,7 +9936,7 @@
       <c r="G282">
         <v>260</v>
       </c>
-      <c r="H282" s="9">
+      <c r="H282" s="8">
         <v>281</v>
       </c>
     </row>
@@ -9960,10 +9959,10 @@
       <c r="F283" s="4">
         <v>100000</v>
       </c>
-      <c r="G283" s="8">
+      <c r="G283">
         <v>1100</v>
       </c>
-      <c r="H283" s="9">
+      <c r="H283" s="8">
         <v>282</v>
       </c>
     </row>
@@ -9989,7 +9988,7 @@
       <c r="G284">
         <v>0</v>
       </c>
-      <c r="H284" s="9">
+      <c r="H284" s="8">
         <v>283</v>
       </c>
     </row>
@@ -10015,7 +10014,7 @@
       <c r="G285">
         <v>260</v>
       </c>
-      <c r="H285" s="9">
+      <c r="H285" s="8">
         <v>284</v>
       </c>
     </row>
@@ -10041,7 +10040,7 @@
       <c r="G286">
         <v>750</v>
       </c>
-      <c r="H286" s="9">
+      <c r="H286" s="8">
         <v>285</v>
       </c>
     </row>
@@ -10067,7 +10066,7 @@
       <c r="G287">
         <v>300</v>
       </c>
-      <c r="H287" s="9">
+      <c r="H287" s="8">
         <v>286</v>
       </c>
     </row>
@@ -10093,7 +10092,7 @@
       <c r="G288">
         <v>30</v>
       </c>
-      <c r="H288" s="9">
+      <c r="H288" s="8">
         <v>287</v>
       </c>
     </row>
@@ -10119,7 +10118,7 @@
       <c r="G289">
         <v>20</v>
       </c>
-      <c r="H289" s="9">
+      <c r="H289" s="8">
         <v>288</v>
       </c>
     </row>
@@ -10145,7 +10144,7 @@
       <c r="G290">
         <v>70</v>
       </c>
-      <c r="H290" s="9">
+      <c r="H290" s="8">
         <v>289</v>
       </c>
     </row>
@@ -10171,7 +10170,7 @@
       <c r="G291">
         <v>60</v>
       </c>
-      <c r="H291" s="9">
+      <c r="H291" s="8">
         <v>290</v>
       </c>
     </row>
@@ -10197,7 +10196,7 @@
       <c r="G292">
         <v>4</v>
       </c>
-      <c r="H292" s="9">
+      <c r="H292" s="8">
         <v>291</v>
       </c>
     </row>
@@ -10223,7 +10222,7 @@
       <c r="G293">
         <v>2</v>
       </c>
-      <c r="H293" s="9">
+      <c r="H293" s="8">
         <v>292</v>
       </c>
     </row>
@@ -10249,7 +10248,7 @@
       <c r="G294">
         <v>530</v>
       </c>
-      <c r="H294" s="9">
+      <c r="H294" s="8">
         <v>293</v>
       </c>
     </row>
@@ -10275,7 +10274,7 @@
       <c r="G295">
         <v>10</v>
       </c>
-      <c r="H295" s="9">
+      <c r="H295" s="8">
         <v>294</v>
       </c>
     </row>
@@ -10301,7 +10300,7 @@
       <c r="G296">
         <v>940</v>
       </c>
-      <c r="H296" s="9">
+      <c r="H296" s="8">
         <v>295</v>
       </c>
     </row>
@@ -10327,7 +10326,7 @@
       <c r="G297">
         <v>50</v>
       </c>
-      <c r="H297" s="9">
+      <c r="H297" s="8">
         <v>296</v>
       </c>
     </row>
@@ -10353,7 +10352,7 @@
       <c r="G298">
         <v>60</v>
       </c>
-      <c r="H298" s="9">
+      <c r="H298" s="8">
         <v>297</v>
       </c>
     </row>
@@ -10379,7 +10378,7 @@
       <c r="G299">
         <v>10</v>
       </c>
-      <c r="H299" s="9">
+      <c r="H299" s="8">
         <v>298</v>
       </c>
     </row>
@@ -10405,7 +10404,7 @@
       <c r="G300">
         <v>20</v>
       </c>
-      <c r="H300" s="9">
+      <c r="H300" s="8">
         <v>299</v>
       </c>
     </row>
@@ -10431,7 +10430,7 @@
       <c r="G301">
         <v>10</v>
       </c>
-      <c r="H301" s="9">
+      <c r="H301" s="8">
         <v>300</v>
       </c>
     </row>
@@ -10457,7 +10456,7 @@
       <c r="G302">
         <v>20</v>
       </c>
-      <c r="H302" s="9">
+      <c r="H302" s="8">
         <v>301</v>
       </c>
     </row>
@@ -10483,7 +10482,7 @@
       <c r="G303">
         <v>10</v>
       </c>
-      <c r="H303" s="9">
+      <c r="H303" s="8">
         <v>302</v>
       </c>
     </row>
@@ -10509,7 +10508,7 @@
       <c r="G304">
         <v>10</v>
       </c>
-      <c r="H304" s="9">
+      <c r="H304" s="8">
         <v>303</v>
       </c>
     </row>
@@ -10535,7 +10534,7 @@
       <c r="G305">
         <v>10</v>
       </c>
-      <c r="H305" s="9">
+      <c r="H305" s="8">
         <v>304</v>
       </c>
     </row>
@@ -10561,7 +10560,7 @@
       <c r="G306">
         <v>40</v>
       </c>
-      <c r="H306" s="9">
+      <c r="H306" s="8">
         <v>305</v>
       </c>
     </row>
@@ -10587,7 +10586,7 @@
       <c r="G307">
         <v>10</v>
       </c>
-      <c r="H307" s="9">
+      <c r="H307" s="8">
         <v>306</v>
       </c>
     </row>
@@ -10610,10 +10609,10 @@
       <c r="F308" s="4">
         <v>100000</v>
       </c>
-      <c r="G308" s="8">
+      <c r="G308">
         <v>1450</v>
       </c>
-      <c r="H308" s="9">
+      <c r="H308" s="8">
         <v>307</v>
       </c>
     </row>
@@ -10636,10 +10635,10 @@
       <c r="F309" s="4">
         <v>100000</v>
       </c>
-      <c r="G309" s="8">
+      <c r="G309">
         <v>1300</v>
       </c>
-      <c r="H309" s="9">
+      <c r="H309" s="8">
         <v>308</v>
       </c>
     </row>
@@ -10665,7 +10664,7 @@
       <c r="G310">
         <v>0</v>
       </c>
-      <c r="H310" s="9">
+      <c r="H310" s="8">
         <v>309</v>
       </c>
     </row>
@@ -10691,7 +10690,7 @@
       <c r="G311">
         <v>440</v>
       </c>
-      <c r="H311" s="9">
+      <c r="H311" s="8">
         <v>310</v>
       </c>
     </row>
@@ -10717,7 +10716,7 @@
       <c r="G312">
         <v>450</v>
       </c>
-      <c r="H312" s="9">
+      <c r="H312" s="8">
         <v>311</v>
       </c>
     </row>
@@ -10743,7 +10742,7 @@
       <c r="G313">
         <v>180</v>
       </c>
-      <c r="H313" s="9">
+      <c r="H313" s="8">
         <v>312</v>
       </c>
     </row>
@@ -10769,7 +10768,7 @@
       <c r="G314">
         <v>470</v>
       </c>
-      <c r="H314" s="9">
+      <c r="H314" s="8">
         <v>313</v>
       </c>
     </row>
@@ -10795,7 +10794,7 @@
       <c r="G315">
         <v>740</v>
       </c>
-      <c r="H315" s="9">
+      <c r="H315" s="8">
         <v>314</v>
       </c>
     </row>
@@ -10821,7 +10820,7 @@
       <c r="G316">
         <v>440</v>
       </c>
-      <c r="H316" s="9">
+      <c r="H316" s="8">
         <v>315</v>
       </c>
     </row>
@@ -10847,7 +10846,7 @@
       <c r="G317">
         <v>80</v>
       </c>
-      <c r="H317" s="9">
+      <c r="H317" s="8">
         <v>316</v>
       </c>
     </row>
@@ -10873,7 +10872,7 @@
       <c r="G318">
         <v>120</v>
       </c>
-      <c r="H318" s="9">
+      <c r="H318" s="8">
         <v>317</v>
       </c>
     </row>
@@ -10899,7 +10898,7 @@
       <c r="G319">
         <v>60</v>
       </c>
-      <c r="H319" s="9">
+      <c r="H319" s="8">
         <v>318</v>
       </c>
     </row>
@@ -10925,7 +10924,7 @@
       <c r="G320">
         <v>210</v>
       </c>
-      <c r="H320" s="9">
+      <c r="H320" s="8">
         <v>319</v>
       </c>
     </row>
@@ -10951,7 +10950,7 @@
       <c r="G321">
         <v>150</v>
       </c>
-      <c r="H321" s="9">
+      <c r="H321" s="8">
         <v>320</v>
       </c>
     </row>
@@ -10977,7 +10976,7 @@
       <c r="G322">
         <v>150</v>
       </c>
-      <c r="H322" s="9">
+      <c r="H322" s="8">
         <v>321</v>
       </c>
     </row>
@@ -11003,7 +11002,7 @@
       <c r="G323">
         <v>270</v>
       </c>
-      <c r="H323" s="9">
+      <c r="H323" s="8">
         <v>322</v>
       </c>
     </row>
@@ -11029,7 +11028,7 @@
       <c r="G324">
         <v>310</v>
       </c>
-      <c r="H324" s="9">
+      <c r="H324" s="8">
         <v>323</v>
       </c>
     </row>
@@ -11055,7 +11054,7 @@
       <c r="G325">
         <v>270</v>
       </c>
-      <c r="H325" s="9">
+      <c r="H325" s="8">
         <v>324</v>
       </c>
     </row>
@@ -11081,7 +11080,7 @@
       <c r="G326">
         <v>50</v>
       </c>
-      <c r="H326" s="9">
+      <c r="H326" s="8">
         <v>325</v>
       </c>
     </row>
@@ -11107,7 +11106,7 @@
       <c r="G327">
         <v>880</v>
       </c>
-      <c r="H327" s="9">
+      <c r="H327" s="8">
         <v>326</v>
       </c>
     </row>
@@ -11133,7 +11132,7 @@
       <c r="G328">
         <v>450</v>
       </c>
-      <c r="H328" s="9">
+      <c r="H328" s="8">
         <v>327</v>
       </c>
     </row>
@@ -11159,7 +11158,7 @@
       <c r="G329">
         <v>300</v>
       </c>
-      <c r="H329" s="9">
+      <c r="H329" s="8">
         <v>328</v>
       </c>
     </row>
@@ -11185,7 +11184,7 @@
       <c r="G330">
         <v>200</v>
       </c>
-      <c r="H330" s="9">
+      <c r="H330" s="8">
         <v>329</v>
       </c>
     </row>
@@ -11211,7 +11210,7 @@
       <c r="G331">
         <v>420</v>
       </c>
-      <c r="H331" s="9">
+      <c r="H331" s="8">
         <v>330</v>
       </c>
     </row>
@@ -11237,7 +11236,7 @@
       <c r="G332">
         <v>280</v>
       </c>
-      <c r="H332" s="9">
+      <c r="H332" s="8">
         <v>331</v>
       </c>
     </row>
@@ -11263,7 +11262,7 @@
       <c r="G333">
         <v>720</v>
       </c>
-      <c r="H333" s="9">
+      <c r="H333" s="8">
         <v>332</v>
       </c>
     </row>
@@ -11289,7 +11288,7 @@
       <c r="G334">
         <v>440</v>
       </c>
-      <c r="H334" s="9">
+      <c r="H334" s="8">
         <v>333</v>
       </c>
     </row>
@@ -11315,7 +11314,7 @@
       <c r="G335">
         <v>10</v>
       </c>
-      <c r="H335" s="9">
+      <c r="H335" s="8">
         <v>334</v>
       </c>
     </row>
@@ -11341,7 +11340,7 @@
       <c r="G336">
         <v>80</v>
       </c>
-      <c r="H336" s="9">
+      <c r="H336" s="8">
         <v>335</v>
       </c>
     </row>
@@ -11367,7 +11366,7 @@
       <c r="G337">
         <v>100</v>
       </c>
-      <c r="H337" s="9">
+      <c r="H337" s="8">
         <v>336</v>
       </c>
     </row>
@@ -11393,7 +11392,7 @@
       <c r="G338">
         <v>60</v>
       </c>
-      <c r="H338" s="9">
+      <c r="H338" s="8">
         <v>337</v>
       </c>
     </row>
@@ -11419,7 +11418,7 @@
       <c r="G339">
         <v>680</v>
       </c>
-      <c r="H339" s="9">
+      <c r="H339" s="8">
         <v>338</v>
       </c>
     </row>
@@ -11445,7 +11444,7 @@
       <c r="G340">
         <v>50</v>
       </c>
-      <c r="H340" s="9">
+      <c r="H340" s="8">
         <v>339</v>
       </c>
     </row>
@@ -11468,10 +11467,10 @@
       <c r="F341" s="4">
         <v>100000</v>
       </c>
-      <c r="G341" s="8">
+      <c r="G341">
         <v>1650</v>
       </c>
-      <c r="H341" s="9">
+      <c r="H341" s="8">
         <v>340</v>
       </c>
     </row>
@@ -11497,7 +11496,7 @@
       <c r="G342">
         <v>550</v>
       </c>
-      <c r="H342" s="9">
+      <c r="H342" s="8">
         <v>341</v>
       </c>
     </row>
@@ -11523,7 +11522,7 @@
       <c r="G343">
         <v>480</v>
       </c>
-      <c r="H343" s="9">
+      <c r="H343" s="8">
         <v>342</v>
       </c>
     </row>
@@ -11549,7 +11548,7 @@
       <c r="G344">
         <v>250</v>
       </c>
-      <c r="H344" s="9">
+      <c r="H344" s="8">
         <v>343</v>
       </c>
     </row>
